--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jurie Roux\Documents\Code Pro\gps_formatter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B051589-79BD-4948-9BA3-B54111B43679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0464EE6E-F715-4486-AA26-1266D44AD183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A75C01C8-8C4E-4D70-9AE0-A7EBECD43E7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="187">
   <si>
     <t>Start date of trip (DDMMYY)</t>
   </si>
@@ -998,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAEB41A-9F5A-4496-A765-C492BB68F7CA}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,808 +1511,49 @@
     </row>
     <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="F23" s="4">
-        <v>4.3049999999999997</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="G23" s="4">
-        <v>59.229000000000006</v>
+        <v>195.054</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.218</v>
-      </c>
-      <c r="G24" s="4">
-        <v>63.44700000000001</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.3100000000000005</v>
-      </c>
-      <c r="G25" s="4">
-        <v>67.757000000000005</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4.4270000000000005</v>
-      </c>
-      <c r="G26" s="4">
-        <v>72.184000000000012</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.1269999999999998</v>
-      </c>
-      <c r="G27" s="4">
-        <v>77.311000000000007</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>5.4710000000000001</v>
+        <v>195.054</v>
       </c>
       <c r="G28" s="4">
-        <v>82.782000000000011</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.1970000000000001</v>
-      </c>
-      <c r="G29" s="4">
-        <v>86.979000000000013</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4.24</v>
-      </c>
-      <c r="G30" s="4">
-        <v>91.219000000000008</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1.0230000000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>92.242000000000004</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G32" s="4">
-        <v>93.215000000000003</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.109</v>
-      </c>
-      <c r="G33" s="4">
-        <v>93.323999999999998</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="4">
-        <v>4.9969999999999999</v>
-      </c>
-      <c r="G34" s="4">
-        <v>98.320999999999998</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="4">
-        <v>4.3120000000000003</v>
-      </c>
-      <c r="G35" s="4">
-        <v>102.633</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3.5020000000000002</v>
-      </c>
-      <c r="G36" s="4">
-        <v>106.13499999999999</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5.3840000000000003</v>
-      </c>
-      <c r="G37" s="4">
-        <v>111.51899999999999</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="4">
-        <v>4.8630000000000004</v>
-      </c>
-      <c r="G38" s="4">
-        <v>116.38199999999999</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="4">
-        <v>4.9510000000000005</v>
-      </c>
-      <c r="G39" s="4">
-        <v>121.33299999999998</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="4">
-        <v>5.3170000000000002</v>
-      </c>
-      <c r="G40" s="4">
-        <v>126.64999999999998</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="4">
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="G41" s="4">
-        <v>130.83799999999997</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4.1950000000000003</v>
-      </c>
-      <c r="G42" s="4">
-        <v>135.03299999999996</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="G43" s="4">
-        <v>137.55399999999995</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.14400000000000002</v>
-      </c>
-      <c r="G44" s="4">
-        <v>137.69799999999995</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2.347</v>
-      </c>
-      <c r="G45" s="4">
-        <v>140.04499999999996</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>140.10699999999997</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="G47" s="4">
-        <v>142.14699999999996</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2.806</v>
-      </c>
-      <c r="G48" s="4">
-        <v>144.95299999999997</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2.2109999999999999</v>
-      </c>
-      <c r="G49" s="4">
-        <v>147.16399999999999</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="4">
-        <v>7.5419999999999998</v>
-      </c>
-      <c r="G50" s="4">
-        <v>154.70599999999999</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="4">
-        <v>11.923999999999999</v>
-      </c>
-      <c r="G51" s="4">
-        <v>166.63</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" s="4">
-        <v>3.996</v>
-      </c>
-      <c r="G52" s="4">
-        <v>170.626</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="4">
-        <v>7.7359999999999998</v>
-      </c>
-      <c r="G53" s="4">
-        <v>178.36199999999999</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="4">
-        <v>11.067</v>
-      </c>
-      <c r="G54" s="4">
-        <v>189.429</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="G55" s="4">
-        <v>192.77100000000002</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="G56" s="4">
-        <v>195.054</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>195.054</v>
-      </c>
-      <c r="G61" s="4">
         <v>195.054</v>
       </c>
     </row>
